--- a/Code/Results/Cases/Case_6_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_55/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00567750151232</v>
+        <v>1.005677501512321</v>
       </c>
       <c r="D2">
-        <v>1.025759530362295</v>
+        <v>1.025759530362296</v>
       </c>
       <c r="E2">
         <v>1.010555492835584</v>
       </c>
       <c r="F2">
-        <v>1.029824739302493</v>
+        <v>1.029824739302494</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,7 +439,7 @@
         <v>1.045703018893758</v>
       </c>
       <c r="J2">
-        <v>1.027689715481679</v>
+        <v>1.02768971548168</v>
       </c>
       <c r="K2">
         <v>1.036871289990532</v>
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013819092437358</v>
+        <v>1.01381909243736</v>
       </c>
       <c r="D3">
-        <v>1.032095983693553</v>
+        <v>1.032095983693554</v>
       </c>
       <c r="E3">
-        <v>1.017393511688353</v>
+        <v>1.017393511688354</v>
       </c>
       <c r="F3">
-        <v>1.036722239574924</v>
+        <v>1.036722239574925</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048131045126978</v>
+        <v>1.048131045126979</v>
       </c>
       <c r="J3">
-        <v>1.033939995212294</v>
+        <v>1.033939995212296</v>
       </c>
       <c r="K3">
-        <v>1.042334022348331</v>
+        <v>1.042334022348332</v>
       </c>
       <c r="L3">
-        <v>1.027808573195367</v>
+        <v>1.027808573195369</v>
       </c>
       <c r="M3">
-        <v>1.046905861679962</v>
+        <v>1.046905861679963</v>
       </c>
       <c r="N3">
-        <v>1.035408308600071</v>
+        <v>1.035408308600072</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018922013077475</v>
+        <v>1.018922013077474</v>
       </c>
       <c r="D4">
-        <v>1.036069907435434</v>
+        <v>1.036069907435433</v>
       </c>
       <c r="E4">
         <v>1.021685276570061</v>
       </c>
       <c r="F4">
-        <v>1.041051001883746</v>
+        <v>1.041051001883745</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049639957225165</v>
+        <v>1.049639957225164</v>
       </c>
       <c r="J4">
-        <v>1.037853771629221</v>
+        <v>1.03785377162922</v>
       </c>
       <c r="K4">
-        <v>1.045751650838247</v>
+        <v>1.045751650838245</v>
       </c>
       <c r="L4">
-        <v>1.031528838934617</v>
+        <v>1.031528838934616</v>
       </c>
       <c r="M4">
         <v>1.050677990975103</v>
       </c>
       <c r="N4">
-        <v>1.039327643028426</v>
+        <v>1.039327643028425</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021030089564728</v>
+        <v>1.021030089564727</v>
       </c>
       <c r="D5">
-        <v>1.03771202785539</v>
+        <v>1.037712027855388</v>
       </c>
       <c r="E5">
-        <v>1.023459559367829</v>
+        <v>1.023459559367828</v>
       </c>
       <c r="F5">
-        <v>1.04284047314334</v>
+        <v>1.042840473143339</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050260133647047</v>
+        <v>1.050260133647046</v>
       </c>
       <c r="J5">
-        <v>1.039469624422571</v>
+        <v>1.03946962442257</v>
       </c>
       <c r="K5">
-        <v>1.047161909776647</v>
+        <v>1.047161909776645</v>
       </c>
       <c r="L5">
-        <v>1.033065143697617</v>
+        <v>1.033065143697616</v>
       </c>
       <c r="M5">
-        <v>1.052235603539411</v>
+        <v>1.05223560353941</v>
       </c>
       <c r="N5">
-        <v>1.040945790518084</v>
+        <v>1.040945790518082</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021381928806286</v>
+        <v>1.021381928806288</v>
       </c>
       <c r="D6">
-        <v>1.037986121283976</v>
+        <v>1.037986121283977</v>
       </c>
       <c r="E6">
-        <v>1.023755761970192</v>
+        <v>1.023755761970194</v>
       </c>
       <c r="F6">
-        <v>1.043139204323088</v>
+        <v>1.04313920432309</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05036345271219</v>
+        <v>1.050363452712191</v>
       </c>
       <c r="J6">
-        <v>1.039739251686418</v>
+        <v>1.03973925168642</v>
       </c>
       <c r="K6">
-        <v>1.047397185699455</v>
+        <v>1.047397185699456</v>
       </c>
       <c r="L6">
-        <v>1.033321517270033</v>
+        <v>1.033321517270035</v>
       </c>
       <c r="M6">
-        <v>1.052495525765498</v>
+        <v>1.0524955257655</v>
       </c>
       <c r="N6">
-        <v>1.041215800683572</v>
+        <v>1.041215800683574</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018950324465509</v>
+        <v>1.018950324465507</v>
       </c>
       <c r="D7">
-        <v>1.036091959454517</v>
+        <v>1.036091959454516</v>
       </c>
       <c r="E7">
-        <v>1.021709100094</v>
+        <v>1.021709100093999</v>
       </c>
       <c r="F7">
-        <v>1.0410750298016</v>
+        <v>1.041075029801598</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049648298831168</v>
+        <v>1.049648298831167</v>
       </c>
       <c r="J7">
-        <v>1.037875476431485</v>
+        <v>1.037875476431483</v>
       </c>
       <c r="K7">
-        <v>1.045770597041263</v>
+        <v>1.045770597041261</v>
       </c>
       <c r="L7">
-        <v>1.031549473861991</v>
+        <v>1.031549473861989</v>
       </c>
       <c r="M7">
-        <v>1.050698912563797</v>
+        <v>1.050698912563795</v>
       </c>
       <c r="N7">
-        <v>1.039349378653998</v>
+        <v>1.039349378653996</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,10 +667,10 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008464697269802</v>
+        <v>1.008464697269801</v>
       </c>
       <c r="D8">
-        <v>1.027928159334802</v>
+        <v>1.027928159334801</v>
       </c>
       <c r="E8">
         <v>1.012895109711201</v>
@@ -685,7 +685,7 @@
         <v>1.046536909351192</v>
       </c>
       <c r="J8">
-        <v>1.029830173955733</v>
+        <v>1.029830173955732</v>
       </c>
       <c r="K8">
         <v>1.038742661543761</v>
@@ -697,7 +697,7 @@
         <v>1.042945727597554</v>
       </c>
       <c r="N8">
-        <v>1.031292650925922</v>
+        <v>1.031292650925921</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.988603104224714</v>
+        <v>0.9886031042247132</v>
       </c>
       <c r="D9">
-        <v>1.012491175380167</v>
+        <v>1.012491175380166</v>
       </c>
       <c r="E9">
-        <v>0.9962536160635492</v>
+        <v>0.9962536160635485</v>
       </c>
       <c r="F9">
-        <v>1.015397909220063</v>
+        <v>1.015397909220062</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -732,13 +732,13 @@
         <v>1.025384791428491</v>
       </c>
       <c r="L9">
-        <v>1.00940776958368</v>
+        <v>1.009407769583679</v>
       </c>
       <c r="M9">
-        <v>1.028246009981181</v>
+        <v>1.02824600998118</v>
       </c>
       <c r="N9">
-        <v>1.016005634864587</v>
+        <v>1.016005634864586</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.974240817355898</v>
+        <v>0.9742408173558972</v>
       </c>
       <c r="D10">
         <v>1.001357863587878</v>
       </c>
       <c r="E10">
-        <v>0.9842658289409449</v>
+        <v>0.9842658289409444</v>
       </c>
       <c r="F10">
-        <v>1.00330671984369</v>
+        <v>1.003306719843689</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -767,19 +767,19 @@
         <v>1.03614377389101</v>
       </c>
       <c r="J10">
-        <v>1.003515079838186</v>
+        <v>1.003515079838185</v>
       </c>
       <c r="K10">
         <v>1.015702644591904</v>
       </c>
       <c r="L10">
-        <v>0.9989251010921867</v>
+        <v>0.9989251010921864</v>
       </c>
       <c r="M10">
-        <v>1.017616526010297</v>
+        <v>1.017616526010296</v>
       </c>
       <c r="N10">
-        <v>1.004940186356345</v>
+        <v>1.004940186356344</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9677048274712278</v>
+        <v>0.9677048274712265</v>
       </c>
       <c r="D11">
-        <v>0.996301273718752</v>
+        <v>0.9963012737187511</v>
       </c>
       <c r="E11">
-        <v>0.9788238107846085</v>
+        <v>0.9788238107846072</v>
       </c>
       <c r="F11">
-        <v>0.9978186580415768</v>
+        <v>0.9978186580415759</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034128745182938</v>
+        <v>1.034128745182937</v>
       </c>
       <c r="J11">
-        <v>0.9984856966031344</v>
+        <v>0.998485696603133</v>
       </c>
       <c r="K11">
-        <v>1.011293281323071</v>
+        <v>1.01129328132307</v>
       </c>
       <c r="L11">
-        <v>0.994156442012334</v>
+        <v>0.9941564420123329</v>
       </c>
       <c r="M11">
-        <v>1.012781828854533</v>
+        <v>1.012781828854532</v>
       </c>
       <c r="N11">
-        <v>0.9999036608202208</v>
+        <v>0.9999036608202198</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9652243004043762</v>
+        <v>0.9652243004043779</v>
       </c>
       <c r="D12">
-        <v>0.9943839923889101</v>
+        <v>0.9943839923889114</v>
       </c>
       <c r="E12">
-        <v>0.9767607186724747</v>
+        <v>0.976760718672476</v>
       </c>
       <c r="F12">
-        <v>0.9957383032784178</v>
+        <v>0.9957383032784193</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,19 +849,19 @@
         <v>1.033362132723533</v>
       </c>
       <c r="J12">
-        <v>0.9965770007153024</v>
+        <v>0.9965770007153039</v>
       </c>
       <c r="K12">
-        <v>1.009619583001747</v>
+        <v>1.009619583001748</v>
       </c>
       <c r="L12">
-        <v>0.9923471134357902</v>
+        <v>0.9923471134357916</v>
       </c>
       <c r="M12">
-        <v>1.010947608670418</v>
+        <v>1.010947608670419</v>
       </c>
       <c r="N12">
-        <v>0.9979922543652979</v>
+        <v>0.9979922543652993</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,16 +872,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9657588608828659</v>
+        <v>0.9657588608828676</v>
       </c>
       <c r="D13">
-        <v>0.9947970861925599</v>
+        <v>0.9947970861925612</v>
       </c>
       <c r="E13">
-        <v>0.9772052149084907</v>
+        <v>0.977205214908492</v>
       </c>
       <c r="F13">
-        <v>0.9961865090725349</v>
+        <v>0.996186509072536</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -890,19 +890,19 @@
         <v>1.033527421672684</v>
       </c>
       <c r="J13">
-        <v>0.9969883248168577</v>
+        <v>0.9969883248168592</v>
       </c>
       <c r="K13">
-        <v>1.00998027778876</v>
+        <v>1.009980277788761</v>
       </c>
       <c r="L13">
-        <v>0.9927370044273485</v>
+        <v>0.99273700442735</v>
       </c>
       <c r="M13">
-        <v>1.011342855206192</v>
+        <v>1.011342855206193</v>
       </c>
       <c r="N13">
-        <v>0.9984041625942567</v>
+        <v>0.9984041625942581</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,16 +913,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9675008953139568</v>
+        <v>0.9675008953139558</v>
       </c>
       <c r="D14">
-        <v>0.9961436098214531</v>
+        <v>0.9961436098214523</v>
       </c>
       <c r="E14">
-        <v>0.9786541501632477</v>
+        <v>0.978654150163247</v>
       </c>
       <c r="F14">
-        <v>0.9976475735421239</v>
+        <v>0.9976475735421226</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -931,19 +931,19 @@
         <v>1.034065756487148</v>
       </c>
       <c r="J14">
-        <v>0.9983287745023884</v>
+        <v>0.9983287745023876</v>
       </c>
       <c r="K14">
-        <v>1.011155685179745</v>
+        <v>1.011155685179744</v>
       </c>
       <c r="L14">
-        <v>0.9940076806380727</v>
+        <v>0.9940076806380718</v>
       </c>
       <c r="M14">
-        <v>1.012631017257082</v>
+        <v>1.01263101725708</v>
       </c>
       <c r="N14">
-        <v>0.9997465158720925</v>
+        <v>0.9997465158720915</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9685670608023779</v>
+        <v>0.9685670608023783</v>
       </c>
       <c r="D15">
-        <v>0.9969679573367339</v>
+        <v>0.9969679573367347</v>
       </c>
       <c r="E15">
-        <v>0.9795412356583711</v>
+        <v>0.9795412356583715</v>
       </c>
       <c r="F15">
-        <v>0.9985421120985746</v>
+        <v>0.998542112098575</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -972,19 +972,19 @@
         <v>1.034394988851006</v>
       </c>
       <c r="J15">
-        <v>0.9991491725244075</v>
+        <v>0.9991491725244082</v>
       </c>
       <c r="K15">
-        <v>1.01187503394787</v>
+        <v>1.011875033947871</v>
       </c>
       <c r="L15">
-        <v>0.9947854311332645</v>
+        <v>0.9947854311332648</v>
       </c>
       <c r="M15">
         <v>1.013419493686815</v>
       </c>
       <c r="N15">
-        <v>1.000568078953404</v>
+        <v>1.000568078953405</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,16 +995,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9746674886188393</v>
+        <v>0.9746674886188391</v>
       </c>
       <c r="D16">
         <v>1.001688188274992</v>
       </c>
       <c r="E16">
-        <v>0.9846213812922898</v>
+        <v>0.9846213812922888</v>
       </c>
       <c r="F16">
-        <v>1.003665303664785</v>
+        <v>1.003665303664784</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1019,13 +1019,13 @@
         <v>1.015990440377065</v>
       </c>
       <c r="L16">
-        <v>0.9992364532785458</v>
+        <v>0.9992364532785449</v>
       </c>
       <c r="M16">
         <v>1.017932209599134</v>
       </c>
       <c r="N16">
-        <v>1.00526896860998</v>
+        <v>1.005268968609979</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784058533141459</v>
+        <v>0.9784058533141471</v>
       </c>
       <c r="D17">
-        <v>1.004583544403087</v>
+        <v>1.004583544403088</v>
       </c>
       <c r="E17">
-        <v>0.9877381547681485</v>
+        <v>0.9877381547681501</v>
       </c>
       <c r="F17">
-        <v>1.006808758208597</v>
+        <v>1.006808758208598</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037423749197675</v>
+        <v>1.037423749197676</v>
       </c>
       <c r="J17">
-        <v>1.006719923404967</v>
+        <v>1.006719923404969</v>
       </c>
       <c r="K17">
-        <v>1.018511681954238</v>
+        <v>1.018511681954239</v>
       </c>
       <c r="L17">
-        <v>1.001964649488937</v>
+        <v>1.001964649488938</v>
       </c>
       <c r="M17">
-        <v>1.020698449225763</v>
+        <v>1.020698449225764</v>
       </c>
       <c r="N17">
-        <v>1.008149581168591</v>
+        <v>1.008149581168593</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9805561748069193</v>
+        <v>0.9805561748069225</v>
       </c>
       <c r="D18">
-        <v>1.006249876046325</v>
+        <v>1.006249876046328</v>
       </c>
       <c r="E18">
-        <v>0.989532170708619</v>
+        <v>0.9895321707086211</v>
       </c>
       <c r="F18">
-        <v>1.008618211806323</v>
+        <v>1.008618211806326</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038083213315055</v>
+        <v>1.038083213315057</v>
       </c>
       <c r="J18">
-        <v>1.008374419994008</v>
+        <v>1.00837441999401</v>
       </c>
       <c r="K18">
-        <v>1.019961593543675</v>
+        <v>1.019961593543678</v>
       </c>
       <c r="L18">
-        <v>1.003534072442339</v>
+        <v>1.003534072442342</v>
       </c>
       <c r="M18">
-        <v>1.022289823582535</v>
+        <v>1.022289823582538</v>
       </c>
       <c r="N18">
-        <v>1.009806427332562</v>
+        <v>1.009806427332564</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.981284399771303</v>
+        <v>0.981284399771302</v>
       </c>
       <c r="D19">
-        <v>1.006814340379756</v>
+        <v>1.006814340379755</v>
       </c>
       <c r="E19">
-        <v>0.9901399327690835</v>
+        <v>0.9901399327690827</v>
       </c>
       <c r="F19">
-        <v>1.009231215698244</v>
+        <v>1.009231215698243</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038306326558975</v>
+        <v>1.038306326558974</v>
       </c>
       <c r="J19">
-        <v>1.008934708995698</v>
+        <v>1.008934708995697</v>
       </c>
       <c r="K19">
-        <v>1.020452559052153</v>
+        <v>1.020452559052152</v>
       </c>
       <c r="L19">
-        <v>1.00406559191876</v>
+        <v>1.004065591918759</v>
       </c>
       <c r="M19">
         <v>1.022828787241817</v>
       </c>
       <c r="N19">
-        <v>1.010367512008901</v>
+        <v>1.0103675120089</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,13 +1159,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9780079209570022</v>
+        <v>0.9780079209570028</v>
       </c>
       <c r="D20">
         <v>1.004275249818583</v>
       </c>
       <c r="E20">
-        <v>0.9874062578987142</v>
+        <v>0.9874062578987148</v>
       </c>
       <c r="F20">
         <v>1.006474011439634</v>
@@ -1177,19 +1177,19 @@
         <v>1.037301606506565</v>
       </c>
       <c r="J20">
-        <v>1.006413738290332</v>
+        <v>1.006413738290333</v>
       </c>
       <c r="K20">
         <v>1.018243338383998</v>
       </c>
       <c r="L20">
-        <v>1.001674227765079</v>
+        <v>1.00167422776508</v>
       </c>
       <c r="M20">
         <v>1.020403970442543</v>
       </c>
       <c r="N20">
-        <v>1.007842961235973</v>
+        <v>1.007842961235974</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1203,13 +1203,13 @@
         <v>0.9669894114789701</v>
       </c>
       <c r="D21">
-        <v>0.9957482015302147</v>
+        <v>0.9957482015302145</v>
       </c>
       <c r="E21">
         <v>0.9782286601120386</v>
       </c>
       <c r="F21">
-        <v>0.9972185158699352</v>
+        <v>0.9972185158699349</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,19 +1218,19 @@
         <v>1.0339077445108</v>
       </c>
       <c r="J21">
-        <v>0.9979351983437355</v>
+        <v>0.9979351983437353</v>
       </c>
       <c r="K21">
         <v>1.010810575755761</v>
       </c>
       <c r="L21">
-        <v>0.9936345792429465</v>
+        <v>0.9936345792429466</v>
       </c>
       <c r="M21">
-        <v>1.012252776627533</v>
+        <v>1.012252776627532</v>
       </c>
       <c r="N21">
-        <v>0.9993523807901504</v>
+        <v>0.9993523807901505</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9597531806096606</v>
+        <v>0.9597531806096601</v>
       </c>
       <c r="D22">
-        <v>0.9901588399964777</v>
+        <v>0.9901588399964772</v>
       </c>
       <c r="E22">
-        <v>0.9722147643270034</v>
+        <v>0.9722147643270027</v>
       </c>
       <c r="F22">
-        <v>0.9911547383490305</v>
+        <v>0.9911547383490299</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,19 +1259,19 @@
         <v>1.031667997710734</v>
       </c>
       <c r="J22">
-        <v>0.992367430236771</v>
+        <v>0.9923674302367704</v>
       </c>
       <c r="K22">
         <v>1.005927805995756</v>
       </c>
       <c r="L22">
-        <v>0.9883575054206355</v>
+        <v>0.9883575054206346</v>
       </c>
       <c r="M22">
-        <v>1.006903481963927</v>
+        <v>1.006903481963926</v>
       </c>
       <c r="N22">
-        <v>0.9937767058138426</v>
+        <v>0.9937767058138419</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9636204111607547</v>
+        <v>0.9636204111607569</v>
       </c>
       <c r="D23">
-        <v>0.9931448368220871</v>
+        <v>0.9931448368220888</v>
       </c>
       <c r="E23">
-        <v>0.9754274079007561</v>
+        <v>0.975427407900758</v>
       </c>
       <c r="F23">
-        <v>0.9943938984689642</v>
+        <v>0.9943938984689663</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032865939891553</v>
+        <v>1.032865939891554</v>
       </c>
       <c r="J23">
-        <v>0.9953428902153435</v>
+        <v>0.9953428902153456</v>
       </c>
       <c r="K23">
-        <v>1.008537338021294</v>
+        <v>1.008537338021296</v>
       </c>
       <c r="L23">
-        <v>0.991177373453242</v>
+        <v>0.991177373453244</v>
       </c>
       <c r="M23">
-        <v>1.009761829654135</v>
+        <v>1.009761829654137</v>
       </c>
       <c r="N23">
-        <v>0.9967563912868747</v>
+        <v>0.9967563912868765</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,13 +1323,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9781878224181655</v>
+        <v>0.9781878224181647</v>
       </c>
       <c r="D24">
-        <v>1.004414624075764</v>
+        <v>1.004414624075763</v>
       </c>
       <c r="E24">
-        <v>0.9875563015147492</v>
+        <v>0.9875563015147486</v>
       </c>
       <c r="F24">
         <v>1.006625343191018</v>
@@ -1341,10 +1341,10 @@
         <v>1.037356830029393</v>
       </c>
       <c r="J24">
-        <v>1.006552161991087</v>
+        <v>1.006552161991086</v>
       </c>
       <c r="K24">
-        <v>1.018364654976586</v>
+        <v>1.018364654976585</v>
       </c>
       <c r="L24">
         <v>1.001805524218943</v>
@@ -1353,7 +1353,7 @@
         <v>1.020537100845097</v>
       </c>
       <c r="N24">
-        <v>1.007981581514261</v>
+        <v>1.00798158151426</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9939199991306347</v>
+        <v>0.993919999130633</v>
       </c>
       <c r="D25">
-        <v>1.016619485821369</v>
+        <v>1.016619485821368</v>
       </c>
       <c r="E25">
-        <v>1.000701421864201</v>
+        <v>1.000701421864199</v>
       </c>
       <c r="F25">
-        <v>1.019884514449153</v>
+        <v>1.019884514449152</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042158009281627</v>
+        <v>1.042158009281626</v>
       </c>
       <c r="J25">
-        <v>1.018653726451177</v>
+        <v>1.018653726451176</v>
       </c>
       <c r="K25">
-        <v>1.028965169784721</v>
+        <v>1.02896516978472</v>
       </c>
       <c r="L25">
-        <v>1.013288858911337</v>
+        <v>1.013288858911336</v>
       </c>
       <c r="M25">
-        <v>1.03218179633801</v>
+        <v>1.032181796338009</v>
       </c>
       <c r="N25">
-        <v>1.020100331583953</v>
+        <v>1.020100331583952</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005677501512321</v>
+        <v>1.002447833518887</v>
       </c>
       <c r="D2">
-        <v>1.025759530362296</v>
+        <v>1.025245384073761</v>
       </c>
       <c r="E2">
-        <v>1.010555492835584</v>
+        <v>1.008414260269438</v>
       </c>
       <c r="F2">
-        <v>1.029824739302494</v>
+        <v>1.028946674184102</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045703018893758</v>
+        <v>1.04606944509109</v>
       </c>
       <c r="J2">
-        <v>1.02768971548168</v>
+        <v>1.024555575994702</v>
       </c>
       <c r="K2">
-        <v>1.036871289990532</v>
+        <v>1.036363867026155</v>
       </c>
       <c r="L2">
-        <v>1.021869705786236</v>
+        <v>1.019757602638308</v>
       </c>
       <c r="M2">
-        <v>1.040883635341489</v>
+        <v>1.040016944228546</v>
       </c>
       <c r="N2">
-        <v>1.029149152755321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011697531250032</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036782661044709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01381909243736</v>
+        <v>1.007207842733649</v>
       </c>
       <c r="D3">
-        <v>1.032095983693554</v>
+        <v>1.028486316901098</v>
       </c>
       <c r="E3">
-        <v>1.017393511688354</v>
+        <v>1.012247289770687</v>
       </c>
       <c r="F3">
-        <v>1.036722239574925</v>
+        <v>1.032793836433038</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048131045126979</v>
+        <v>1.047076157824198</v>
       </c>
       <c r="J3">
-        <v>1.033939995212296</v>
+        <v>1.027503924839453</v>
       </c>
       <c r="K3">
-        <v>1.042334022348332</v>
+        <v>1.038767235929094</v>
       </c>
       <c r="L3">
-        <v>1.027808573195369</v>
+        <v>1.022725826310852</v>
       </c>
       <c r="M3">
-        <v>1.046905861679963</v>
+        <v>1.043023627897007</v>
       </c>
       <c r="N3">
-        <v>1.035408308600072</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012723071669327</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038479392277059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018922013077474</v>
+        <v>1.010227057885304</v>
       </c>
       <c r="D4">
-        <v>1.036069907435433</v>
+        <v>1.03054590235986</v>
       </c>
       <c r="E4">
-        <v>1.021685276570061</v>
+        <v>1.014684702278638</v>
       </c>
       <c r="F4">
-        <v>1.041051001883745</v>
+        <v>1.035239582459785</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049639957225164</v>
+        <v>1.047705157946408</v>
       </c>
       <c r="J4">
-        <v>1.03785377162922</v>
+        <v>1.029372723705761</v>
       </c>
       <c r="K4">
-        <v>1.045751650838245</v>
+        <v>1.040289129865139</v>
       </c>
       <c r="L4">
-        <v>1.031528838934616</v>
+        <v>1.024609068549804</v>
       </c>
       <c r="M4">
-        <v>1.050677990975103</v>
+        <v>1.044930516143656</v>
       </c>
       <c r="N4">
-        <v>1.039327643028425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013372648717427</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039556403495024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021030089564727</v>
+        <v>1.011487315283666</v>
       </c>
       <c r="D5">
-        <v>1.037712027855388</v>
+        <v>1.031408628495604</v>
       </c>
       <c r="E5">
-        <v>1.023459559367828</v>
+        <v>1.015704108840099</v>
       </c>
       <c r="F5">
-        <v>1.042840473143339</v>
+        <v>1.036262960011407</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050260133647046</v>
+        <v>1.047967119854095</v>
       </c>
       <c r="J5">
-        <v>1.03946962442257</v>
+        <v>1.03015421754728</v>
       </c>
       <c r="K5">
-        <v>1.047161909776645</v>
+        <v>1.040926721061264</v>
       </c>
       <c r="L5">
-        <v>1.033065143697616</v>
+        <v>1.025396680113686</v>
       </c>
       <c r="M5">
-        <v>1.05223560353941</v>
+        <v>1.045728432605666</v>
       </c>
       <c r="N5">
-        <v>1.040945790518082</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013644741742792</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040014406164645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021381928806288</v>
+        <v>1.011704200405123</v>
       </c>
       <c r="D6">
-        <v>1.037986121283977</v>
+        <v>1.031559763475584</v>
       </c>
       <c r="E6">
-        <v>1.023755761970194</v>
+        <v>1.015880314307069</v>
       </c>
       <c r="F6">
-        <v>1.04313920432309</v>
+        <v>1.03644063695276</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050363452712191</v>
+        <v>1.048014190222625</v>
       </c>
       <c r="J6">
-        <v>1.03973925168642</v>
+        <v>1.030290856774982</v>
       </c>
       <c r="K6">
-        <v>1.047397185699456</v>
+        <v>1.041040037158502</v>
       </c>
       <c r="L6">
-        <v>1.033321517270035</v>
+        <v>1.025533973493646</v>
       </c>
       <c r="M6">
-        <v>1.0524955257655</v>
+        <v>1.045868249570042</v>
       </c>
       <c r="N6">
-        <v>1.041215800683574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013693002054967</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040103273804479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018950324465507</v>
+        <v>1.010260394820592</v>
       </c>
       <c r="D7">
-        <v>1.036091959454516</v>
+        <v>1.030575729362075</v>
       </c>
       <c r="E7">
-        <v>1.021709100093999</v>
+        <v>1.014713526971426</v>
       </c>
       <c r="F7">
-        <v>1.041075029801598</v>
+        <v>1.035270631349149</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049648298831167</v>
+        <v>1.047717826087848</v>
       </c>
       <c r="J7">
-        <v>1.037875476431483</v>
+        <v>1.029399234985214</v>
       </c>
       <c r="K7">
-        <v>1.045770597041261</v>
+        <v>1.040315740266399</v>
       </c>
       <c r="L7">
-        <v>1.031549473861989</v>
+        <v>1.02463461475298</v>
       </c>
       <c r="M7">
-        <v>1.050698912563795</v>
+        <v>1.044958356037495</v>
       </c>
       <c r="N7">
-        <v>1.039349378653996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013383774692905</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039595335928418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008464697269801</v>
+        <v>1.004090281053778</v>
       </c>
       <c r="D8">
-        <v>1.027928159334801</v>
+        <v>1.026371577029129</v>
       </c>
       <c r="E8">
-        <v>1.012895109711201</v>
+        <v>1.009738006010927</v>
       </c>
       <c r="F8">
-        <v>1.032184761425701</v>
+        <v>1.030277954710729</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046536909351192</v>
+        <v>1.046425933492437</v>
       </c>
       <c r="J8">
-        <v>1.029830173955732</v>
+        <v>1.025580494643954</v>
       </c>
       <c r="K8">
-        <v>1.038742661543761</v>
+        <v>1.037205795083743</v>
       </c>
       <c r="L8">
-        <v>1.023903196286462</v>
+        <v>1.02078766590662</v>
       </c>
       <c r="M8">
-        <v>1.042945727597554</v>
+        <v>1.041062834906904</v>
       </c>
       <c r="N8">
-        <v>1.031292650925921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012056632513422</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037400928128961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9886031042247132</v>
+        <v>0.9926991138705419</v>
       </c>
       <c r="D9">
-        <v>1.012491175380166</v>
+        <v>1.018632713500021</v>
       </c>
       <c r="E9">
-        <v>0.9962536160635485</v>
+        <v>1.000600580284378</v>
       </c>
       <c r="F9">
-        <v>1.015397909220062</v>
+        <v>1.021101280751152</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040542023027523</v>
+        <v>1.043957593446073</v>
       </c>
       <c r="J9">
-        <v>1.01456483642465</v>
+        <v>1.018512345885702</v>
       </c>
       <c r="K9">
-        <v>1.025384791428491</v>
+        <v>1.031430551942585</v>
       </c>
       <c r="L9">
-        <v>1.009407769583679</v>
+        <v>1.013683921001819</v>
       </c>
       <c r="M9">
-        <v>1.02824600998118</v>
+        <v>1.033861036105818</v>
       </c>
       <c r="N9">
-        <v>1.016005634864586</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009593603498288</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.033314223895456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9742408173558972</v>
+        <v>0.9847415677721165</v>
       </c>
       <c r="D10">
-        <v>1.001357863587878</v>
+        <v>1.013256811756101</v>
       </c>
       <c r="E10">
-        <v>0.9842658289409444</v>
+        <v>0.9942568492210616</v>
       </c>
       <c r="F10">
-        <v>1.003306719843689</v>
+        <v>1.014728875179812</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03614377389101</v>
+        <v>1.042188252964295</v>
       </c>
       <c r="J10">
-        <v>1.003515079838185</v>
+        <v>1.013573929712407</v>
       </c>
       <c r="K10">
-        <v>1.015702644591904</v>
+        <v>1.027390765756375</v>
       </c>
       <c r="L10">
-        <v>0.9989251010921864</v>
+        <v>1.008730578086415</v>
       </c>
       <c r="M10">
-        <v>1.017616526010296</v>
+        <v>1.028837191859329</v>
       </c>
       <c r="N10">
-        <v>1.004940186356344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007871857566712</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.030474707448288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9677048274712265</v>
+        <v>0.9812216593061863</v>
       </c>
       <c r="D11">
-        <v>0.9963012737187511</v>
+        <v>1.010895379979339</v>
       </c>
       <c r="E11">
-        <v>0.9788238107846072</v>
+        <v>0.9914638178159304</v>
       </c>
       <c r="F11">
-        <v>0.9978186580415759</v>
+        <v>1.011925119945246</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034128745182937</v>
+        <v>1.041402433520131</v>
       </c>
       <c r="J11">
-        <v>0.998485696603133</v>
+        <v>1.01139705667748</v>
       </c>
       <c r="K11">
-        <v>1.01129328132307</v>
+        <v>1.025614709413832</v>
       </c>
       <c r="L11">
-        <v>0.9941564420123329</v>
+        <v>1.006548529668542</v>
       </c>
       <c r="M11">
-        <v>1.012781828854532</v>
+        <v>1.026625596329709</v>
       </c>
       <c r="N11">
-        <v>0.9999036608202198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007115659263037</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.02925201805834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9652243004043779</v>
+        <v>0.9798864831180157</v>
       </c>
       <c r="D12">
-        <v>0.9943839923889114</v>
+        <v>1.009995935556611</v>
       </c>
       <c r="E12">
-        <v>0.976760718672476</v>
+        <v>0.9904042948286715</v>
       </c>
       <c r="F12">
-        <v>0.9957383032784193</v>
+        <v>1.010860274446999</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033362132723533</v>
+        <v>1.041098840782379</v>
       </c>
       <c r="J12">
-        <v>0.9965770007153039</v>
+        <v>1.010567168864362</v>
       </c>
       <c r="K12">
-        <v>1.009619583001748</v>
+        <v>1.024934102602641</v>
       </c>
       <c r="L12">
-        <v>0.9923471134357916</v>
+        <v>1.005717671731717</v>
       </c>
       <c r="M12">
-        <v>1.010947608670419</v>
+        <v>1.025782325109002</v>
       </c>
       <c r="N12">
-        <v>0.9979922543652993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006825707931736</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.028770799793292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9657588608828676</v>
+        <v>0.9801711339886026</v>
       </c>
       <c r="D13">
-        <v>0.9947970861925612</v>
+        <v>1.010186666968145</v>
       </c>
       <c r="E13">
-        <v>0.977205214908492</v>
+        <v>0.9906297748098953</v>
       </c>
       <c r="F13">
-        <v>0.996186509072536</v>
+        <v>1.011086652135327</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033527421672684</v>
+        <v>1.041162851267752</v>
       </c>
       <c r="J13">
-        <v>0.9969883248168592</v>
+        <v>1.010743269365217</v>
       </c>
       <c r="K13">
-        <v>1.009980277788761</v>
+        <v>1.025077887015663</v>
       </c>
       <c r="L13">
-        <v>0.99273700442735</v>
+        <v>1.005894076939877</v>
       </c>
       <c r="M13">
-        <v>1.011342855206193</v>
+        <v>1.025961156373309</v>
       </c>
       <c r="N13">
-        <v>0.9984041625942581</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006886911713137</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.02886994819121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9675008953139558</v>
+        <v>0.9811105651170589</v>
       </c>
       <c r="D14">
-        <v>0.9961436098214523</v>
+        <v>1.010820102369703</v>
       </c>
       <c r="E14">
-        <v>0.978654150163247</v>
+        <v>0.9913754861173646</v>
       </c>
       <c r="F14">
-        <v>0.9976475735421226</v>
+        <v>1.011836243661761</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034065756487148</v>
+        <v>1.041376870330881</v>
       </c>
       <c r="J14">
-        <v>0.9983287745023876</v>
+        <v>1.011327652875899</v>
       </c>
       <c r="K14">
-        <v>1.011155685179744</v>
+        <v>1.025557517129563</v>
       </c>
       <c r="L14">
-        <v>0.9940076806380718</v>
+        <v>1.006479086860472</v>
       </c>
       <c r="M14">
-        <v>1.01263101725708</v>
+        <v>1.026555026064826</v>
       </c>
       <c r="N14">
-        <v>0.9997465158720915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007091273232721</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.029210504155706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9685670608023783</v>
+        <v>0.9816921656805561</v>
       </c>
       <c r="D15">
-        <v>0.9969679573367347</v>
+        <v>1.011214347570329</v>
       </c>
       <c r="E15">
-        <v>0.9795412356583715</v>
+        <v>0.991838018465142</v>
       </c>
       <c r="F15">
-        <v>0.998542112098575</v>
+        <v>1.012301652862534</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034394988851006</v>
+        <v>1.041510716313905</v>
       </c>
       <c r="J15">
-        <v>0.9991491725244082</v>
+        <v>1.011691082010004</v>
       </c>
       <c r="K15">
-        <v>1.011875033947871</v>
+        <v>1.025857061475101</v>
       </c>
       <c r="L15">
-        <v>0.9947854311332648</v>
+        <v>1.006842723006935</v>
       </c>
       <c r="M15">
-        <v>1.013419493686815</v>
+        <v>1.026924587818963</v>
       </c>
       <c r="N15">
-        <v>1.000568078953405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007218999273562</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.029428213261986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9746674886188391</v>
+        <v>0.9850146278738906</v>
       </c>
       <c r="D16">
-        <v>1.001688188274992</v>
+        <v>1.01345684545252</v>
       </c>
       <c r="E16">
-        <v>0.9846213812922888</v>
+        <v>0.9944792999075002</v>
       </c>
       <c r="F16">
-        <v>1.003665303664784</v>
+        <v>1.014956361861548</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036275049682478</v>
+        <v>1.042262430620012</v>
       </c>
       <c r="J16">
-        <v>1.003843395845432</v>
+        <v>1.013756942952438</v>
       </c>
       <c r="K16">
-        <v>1.015990440377065</v>
+        <v>1.027551333041943</v>
       </c>
       <c r="L16">
-        <v>0.9992364532785449</v>
+        <v>1.008911979681836</v>
       </c>
       <c r="M16">
-        <v>1.017932209599134</v>
+        <v>1.029024824689151</v>
       </c>
       <c r="N16">
-        <v>1.005268968609979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007940905456018</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.030629324337695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784058533141471</v>
+        <v>0.987071849869287</v>
       </c>
       <c r="D17">
-        <v>1.004583544403088</v>
+        <v>1.014847407116811</v>
       </c>
       <c r="E17">
-        <v>0.9877381547681501</v>
+        <v>0.9961174193237345</v>
       </c>
       <c r="F17">
-        <v>1.006808758208598</v>
+        <v>1.016602754432045</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037423749197676</v>
+        <v>1.042725095798308</v>
       </c>
       <c r="J17">
-        <v>1.006719923404969</v>
+        <v>1.015036066211344</v>
       </c>
       <c r="K17">
-        <v>1.018511681954239</v>
+        <v>1.028600021094583</v>
       </c>
       <c r="L17">
-        <v>1.001964649488938</v>
+        <v>1.010193868442677</v>
       </c>
       <c r="M17">
-        <v>1.020698449225764</v>
+        <v>1.030325807623859</v>
       </c>
       <c r="N17">
-        <v>1.008149581168593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008387786331696</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.031373393529634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9805561748069225</v>
+        <v>0.9882497157893281</v>
       </c>
       <c r="D18">
-        <v>1.006249876046328</v>
+        <v>1.015639198199946</v>
       </c>
       <c r="E18">
-        <v>0.9895321707086211</v>
+        <v>0.997054604915308</v>
       </c>
       <c r="F18">
-        <v>1.008618211806326</v>
+        <v>1.017543348261437</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038083213315057</v>
+        <v>1.042984879068396</v>
       </c>
       <c r="J18">
-        <v>1.00837441999401</v>
+        <v>1.015764104224187</v>
       </c>
       <c r="K18">
-        <v>1.019961593543678</v>
+        <v>1.029193330783169</v>
       </c>
       <c r="L18">
-        <v>1.003534072442342</v>
+        <v>1.010924374137004</v>
       </c>
       <c r="M18">
-        <v>1.022289823582538</v>
+        <v>1.031065979113675</v>
       </c>
       <c r="N18">
-        <v>1.009806427332564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008640463072874</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.031781174588094</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.981284399771302</v>
+        <v>0.9886595686069726</v>
       </c>
       <c r="D19">
-        <v>1.006814340379755</v>
+        <v>1.015918783564398</v>
       </c>
       <c r="E19">
-        <v>0.9901399327690827</v>
+        <v>0.9973821547744139</v>
       </c>
       <c r="F19">
-        <v>1.009231215698243</v>
+        <v>1.017873097802603</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038306326558974</v>
+        <v>1.043078301859603</v>
       </c>
       <c r="J19">
-        <v>1.008934708995697</v>
+        <v>1.016020779830445</v>
       </c>
       <c r="K19">
-        <v>1.020452559052152</v>
+        <v>1.029405180089543</v>
       </c>
       <c r="L19">
-        <v>1.004065591918759</v>
+        <v>1.011181442178007</v>
       </c>
       <c r="M19">
-        <v>1.022828787241817</v>
+        <v>1.031327360231004</v>
       </c>
       <c r="N19">
-        <v>1.0103675120089</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008730822891711</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.031937392508226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9780079209570028</v>
+        <v>0.9868511192938677</v>
       </c>
       <c r="D20">
-        <v>1.004275249818583</v>
+        <v>1.014697737931139</v>
       </c>
       <c r="E20">
-        <v>0.9874062578987148</v>
+        <v>0.9959414289691102</v>
       </c>
       <c r="F20">
-        <v>1.006474011439634</v>
+        <v>1.016425777778165</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037301606506565</v>
+        <v>1.042675240437676</v>
       </c>
       <c r="J20">
-        <v>1.006413738290333</v>
+        <v>1.014898490120092</v>
       </c>
       <c r="K20">
-        <v>1.018243338383998</v>
+        <v>1.02848697662274</v>
       </c>
       <c r="L20">
-        <v>1.00167422776508</v>
+        <v>1.010056020853593</v>
       </c>
       <c r="M20">
-        <v>1.020403970442543</v>
+        <v>1.030185820555794</v>
       </c>
       <c r="N20">
-        <v>1.007842961235974</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.00833959798958</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031292122566519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9669894114789701</v>
+        <v>0.9808481963139885</v>
       </c>
       <c r="D21">
-        <v>0.9957482015302145</v>
+        <v>1.010648581668433</v>
       </c>
       <c r="E21">
-        <v>0.9782286601120386</v>
+        <v>0.9911690271413621</v>
       </c>
       <c r="F21">
-        <v>0.9972185158699349</v>
+        <v>1.01163003438495</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0339077445108</v>
+        <v>1.041321521819521</v>
       </c>
       <c r="J21">
-        <v>0.9979351983437353</v>
+        <v>1.011169058649978</v>
       </c>
       <c r="K21">
-        <v>1.010810575755761</v>
+        <v>1.02543098324659</v>
       </c>
       <c r="L21">
-        <v>0.9936345792429466</v>
+        <v>1.006319658952356</v>
       </c>
       <c r="M21">
-        <v>1.012252776627532</v>
+        <v>1.026394371978892</v>
       </c>
       <c r="N21">
-        <v>0.9993523807901505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007037630716624</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.02913466061476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9597531806096601</v>
+        <v>0.976965744982653</v>
       </c>
       <c r="D22">
-        <v>0.9901588399964772</v>
+        <v>1.008030083756067</v>
       </c>
       <c r="E22">
-        <v>0.9722147643270027</v>
+        <v>0.9880893225454818</v>
       </c>
       <c r="F22">
-        <v>0.9911547383490299</v>
+        <v>1.008533504796405</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031667997710734</v>
+        <v>1.040431416885302</v>
       </c>
       <c r="J22">
-        <v>0.9923674302367704</v>
+        <v>1.008751315893325</v>
       </c>
       <c r="K22">
-        <v>1.005927805995756</v>
+        <v>1.023444124093818</v>
       </c>
       <c r="L22">
-        <v>0.9883575054206346</v>
+        <v>1.003900483407001</v>
       </c>
       <c r="M22">
-        <v>1.006903481963926</v>
+        <v>1.023937785829196</v>
       </c>
       <c r="N22">
-        <v>0.9937767058138419</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006190973712067</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027716240164361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9636204111607569</v>
+        <v>0.9790162220278805</v>
       </c>
       <c r="D23">
-        <v>0.9931448368220888</v>
+        <v>1.009405816134599</v>
       </c>
       <c r="E23">
-        <v>0.975427407900758</v>
+        <v>0.9897127079623086</v>
       </c>
       <c r="F23">
-        <v>0.9943938984689663</v>
+        <v>1.010164187979344</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032865939891554</v>
+        <v>1.040897109228324</v>
       </c>
       <c r="J23">
-        <v>0.9953428902153456</v>
+        <v>1.010022662277617</v>
       </c>
       <c r="K23">
-        <v>1.008537338021296</v>
+        <v>1.02448466694762</v>
       </c>
       <c r="L23">
-        <v>0.991177373453244</v>
+        <v>1.005173141572386</v>
       </c>
       <c r="M23">
-        <v>1.009761829654137</v>
+        <v>1.025228732879542</v>
       </c>
       <c r="N23">
-        <v>0.9967563912868765</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006634023713022</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.028442242794028</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9781878224181647</v>
+        <v>0.9869241281437822</v>
       </c>
       <c r="D24">
-        <v>1.004414624075763</v>
+        <v>1.014736616366195</v>
       </c>
       <c r="E24">
-        <v>0.9875563015147486</v>
+        <v>0.9959961579956946</v>
       </c>
       <c r="F24">
-        <v>1.006625343191018</v>
+        <v>1.016478114001269</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037356830029393</v>
+        <v>1.042683128874023</v>
       </c>
       <c r="J24">
-        <v>1.006552161991086</v>
+        <v>1.014934983212064</v>
       </c>
       <c r="K24">
-        <v>1.018364654976585</v>
+        <v>1.028509790174354</v>
       </c>
       <c r="L24">
-        <v>1.001805524218943</v>
+        <v>1.010093952320589</v>
       </c>
       <c r="M24">
-        <v>1.020537100845097</v>
+        <v>1.030221905691677</v>
       </c>
       <c r="N24">
-        <v>1.00798158151426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008348944517734</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031280678523166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.993919999130633</v>
+        <v>0.9957333688732468</v>
       </c>
       <c r="D25">
-        <v>1.016619485821368</v>
+        <v>1.020700763315179</v>
       </c>
       <c r="E25">
-        <v>1.000701421864199</v>
+        <v>1.003031499747666</v>
       </c>
       <c r="F25">
-        <v>1.019884514449152</v>
+        <v>1.023546080790348</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042158009281626</v>
+        <v>1.044632504514439</v>
       </c>
       <c r="J25">
-        <v>1.018653726451176</v>
+        <v>1.020405180305159</v>
       </c>
       <c r="K25">
-        <v>1.02896516978472</v>
+        <v>1.032986006261085</v>
       </c>
       <c r="L25">
-        <v>1.013288858911336</v>
+        <v>1.015582937162461</v>
       </c>
       <c r="M25">
-        <v>1.032181796338009</v>
+        <v>1.035789548365474</v>
       </c>
       <c r="N25">
-        <v>1.020100331583952</v>
+        <v>1.010256938047554</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034442741316969</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_55/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_55/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002447833518887</v>
+        <v>1.002387159691863</v>
       </c>
       <c r="D2">
-        <v>1.025245384073761</v>
+        <v>1.024749017235097</v>
       </c>
       <c r="E2">
-        <v>1.008414260269438</v>
+        <v>1.008391263740559</v>
       </c>
       <c r="F2">
-        <v>1.028946674184102</v>
+        <v>1.028569608087947</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04606944509109</v>
+        <v>1.045894151449623</v>
       </c>
       <c r="J2">
-        <v>1.024555575994702</v>
+        <v>1.024496704902128</v>
       </c>
       <c r="K2">
-        <v>1.036363867026155</v>
+        <v>1.035873999036252</v>
       </c>
       <c r="L2">
-        <v>1.019757602638308</v>
+        <v>1.019734919800508</v>
       </c>
       <c r="M2">
-        <v>1.040016944228546</v>
+        <v>1.039644769914098</v>
       </c>
       <c r="N2">
-        <v>1.011697531250032</v>
+        <v>1.013426013389178</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036782661044709</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03644507514061</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021514222741745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007207842733649</v>
+        <v>1.006829895276081</v>
       </c>
       <c r="D3">
-        <v>1.028486316901098</v>
+        <v>1.027659121383399</v>
       </c>
       <c r="E3">
-        <v>1.012247289770687</v>
+        <v>1.011945380568734</v>
       </c>
       <c r="F3">
-        <v>1.032793836433038</v>
+        <v>1.032101779137576</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047076157824198</v>
+        <v>1.046751193686453</v>
       </c>
       <c r="J3">
-        <v>1.027503924839453</v>
+        <v>1.027136086404058</v>
       </c>
       <c r="K3">
-        <v>1.038767235929094</v>
+        <v>1.037949919539598</v>
       </c>
       <c r="L3">
-        <v>1.022725826310852</v>
+        <v>1.0224276659166</v>
       </c>
       <c r="M3">
-        <v>1.043023627897007</v>
+        <v>1.042339749245185</v>
       </c>
       <c r="N3">
-        <v>1.012723071669327</v>
+        <v>1.014154107140524</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038479392277059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037909988461466</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021975118376882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010227057885304</v>
+        <v>1.00965075658345</v>
       </c>
       <c r="D4">
-        <v>1.03054590235986</v>
+        <v>1.029510736775369</v>
       </c>
       <c r="E4">
-        <v>1.014684702278638</v>
+        <v>1.014208193285316</v>
       </c>
       <c r="F4">
-        <v>1.035239582459785</v>
+        <v>1.0343499363585</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047705157946408</v>
+        <v>1.047286035063592</v>
       </c>
       <c r="J4">
-        <v>1.029372723705761</v>
+        <v>1.028810775741936</v>
       </c>
       <c r="K4">
-        <v>1.040289129865139</v>
+        <v>1.039265576424525</v>
       </c>
       <c r="L4">
-        <v>1.024609068549804</v>
+        <v>1.024138109783779</v>
       </c>
       <c r="M4">
-        <v>1.044930516143656</v>
+        <v>1.044050737044584</v>
       </c>
       <c r="N4">
-        <v>1.013372648717427</v>
+        <v>1.014615871086237</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039556403495024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038841250543191</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022264764658577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011487315283666</v>
+        <v>1.010828753401835</v>
       </c>
       <c r="D5">
-        <v>1.031408628495604</v>
+        <v>1.030287040135709</v>
       </c>
       <c r="E5">
-        <v>1.015704108840099</v>
+        <v>1.015155128488959</v>
       </c>
       <c r="F5">
-        <v>1.036262960011407</v>
+        <v>1.035291278305098</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047967119854095</v>
+        <v>1.047508823117737</v>
       </c>
       <c r="J5">
-        <v>1.03015421754728</v>
+        <v>1.029511559474451</v>
       </c>
       <c r="K5">
-        <v>1.040926721061264</v>
+        <v>1.039817377063089</v>
       </c>
       <c r="L5">
-        <v>1.025396680113686</v>
+        <v>1.024853919342904</v>
       </c>
       <c r="M5">
-        <v>1.045728432605666</v>
+        <v>1.044767235296141</v>
       </c>
       <c r="N5">
-        <v>1.013644741742792</v>
+        <v>1.014809472112213</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040014406164645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039239301754648</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022386184132372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011704200405123</v>
+        <v>1.011031373551604</v>
       </c>
       <c r="D6">
-        <v>1.031559763475584</v>
+        <v>1.030423273548054</v>
       </c>
       <c r="E6">
-        <v>1.015880314307069</v>
+        <v>1.015318744659458</v>
       </c>
       <c r="F6">
-        <v>1.03644063695276</v>
+        <v>1.035454787481241</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048014190222625</v>
+        <v>1.047549100226918</v>
       </c>
       <c r="J6">
-        <v>1.030290856774982</v>
+        <v>1.029634193173833</v>
       </c>
       <c r="K6">
-        <v>1.041040037158502</v>
+        <v>1.039915896989248</v>
       </c>
       <c r="L6">
-        <v>1.025533973493646</v>
+        <v>1.024978736122478</v>
       </c>
       <c r="M6">
-        <v>1.045868249570042</v>
+        <v>1.044892987659301</v>
       </c>
       <c r="N6">
-        <v>1.013693002054967</v>
+        <v>1.014843868837394</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040103273804479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039318576155631</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022408478218621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010260394820592</v>
+        <v>1.009693111131301</v>
       </c>
       <c r="D7">
-        <v>1.030575729362075</v>
+        <v>1.029546563909764</v>
       </c>
       <c r="E7">
-        <v>1.014713526971426</v>
+        <v>1.014245310396857</v>
       </c>
       <c r="F7">
-        <v>1.035270631349149</v>
+        <v>1.034387584439742</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047717826087848</v>
+        <v>1.047301687763406</v>
       </c>
       <c r="J7">
-        <v>1.029399234985214</v>
+        <v>1.028846073456285</v>
       </c>
       <c r="K7">
-        <v>1.040315740266399</v>
+        <v>1.039298114895319</v>
       </c>
       <c r="L7">
-        <v>1.02463461475298</v>
+        <v>1.024171849553928</v>
       </c>
       <c r="M7">
-        <v>1.044958356037495</v>
+        <v>1.044085098878462</v>
       </c>
       <c r="N7">
-        <v>1.013383774692905</v>
+        <v>1.014653431178518</v>
       </c>
       <c r="Q7">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R7">
-        <v>1.039595335928418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03888637352855</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022274502454844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004090281053778</v>
+        <v>1.003954907651612</v>
       </c>
       <c r="D8">
-        <v>1.026371577029129</v>
+        <v>1.025786779988173</v>
       </c>
       <c r="E8">
-        <v>1.009738006010927</v>
+        <v>1.009650722913671</v>
       </c>
       <c r="F8">
-        <v>1.030277954710729</v>
+        <v>1.029819495939838</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046425933492437</v>
+        <v>1.046211729617607</v>
       </c>
       <c r="J8">
-        <v>1.025580494643954</v>
+        <v>1.025449005174407</v>
       </c>
       <c r="K8">
-        <v>1.037205795083743</v>
+        <v>1.036628424456506</v>
       </c>
       <c r="L8">
-        <v>1.02078766590662</v>
+        <v>1.020701536802086</v>
       </c>
       <c r="M8">
-        <v>1.041062834906904</v>
+        <v>1.040610142322834</v>
       </c>
       <c r="N8">
-        <v>1.012056632513422</v>
+        <v>1.01377105351701</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037400928128961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037003731801343</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021687003155054</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9926991138705419</v>
+        <v>0.9933479386125932</v>
       </c>
       <c r="D9">
-        <v>1.018632713500021</v>
+        <v>1.018856174336276</v>
       </c>
       <c r="E9">
-        <v>1.000600580284378</v>
+        <v>1.001201321839724</v>
       </c>
       <c r="F9">
-        <v>1.021101280751152</v>
+        <v>1.021415796712583</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043957593446073</v>
+        <v>1.044108956770972</v>
       </c>
       <c r="J9">
-        <v>1.018512345885702</v>
+        <v>1.019137805100907</v>
       </c>
       <c r="K9">
-        <v>1.031430551942585</v>
+        <v>1.031650555701319</v>
       </c>
       <c r="L9">
-        <v>1.013683921001819</v>
+        <v>1.014274938457708</v>
       </c>
       <c r="M9">
-        <v>1.033861036105818</v>
+        <v>1.034170716838541</v>
       </c>
       <c r="N9">
-        <v>1.009593603498288</v>
+        <v>1.012037517329752</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033314223895456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033480573072955</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020566538475564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9847415677721165</v>
+        <v>0.9860123919967699</v>
       </c>
       <c r="D10">
-        <v>1.013256811756101</v>
+        <v>1.014097669589494</v>
       </c>
       <c r="E10">
-        <v>0.9942568492210616</v>
+        <v>0.9954034781574065</v>
       </c>
       <c r="F10">
-        <v>1.014728875179812</v>
+        <v>1.015641306533819</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042188252964295</v>
+        <v>1.04262025249391</v>
       </c>
       <c r="J10">
-        <v>1.013573929712407</v>
+        <v>1.014792181057575</v>
       </c>
       <c r="K10">
-        <v>1.027390765756375</v>
+        <v>1.02821696748635</v>
       </c>
       <c r="L10">
-        <v>1.008730578086415</v>
+        <v>1.009856223148654</v>
       </c>
       <c r="M10">
-        <v>1.028837191859329</v>
+        <v>1.02973378067288</v>
       </c>
       <c r="N10">
-        <v>1.007871857566712</v>
+        <v>1.010957834025042</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.030474707448288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031071373330198</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019785613123307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9812216593061863</v>
+        <v>0.9828606220903393</v>
       </c>
       <c r="D11">
-        <v>1.010895379979339</v>
+        <v>1.012078863342122</v>
       </c>
       <c r="E11">
-        <v>0.9914638178159304</v>
+        <v>0.9929371001050551</v>
       </c>
       <c r="F11">
-        <v>1.011925119945246</v>
+        <v>1.013176678405965</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041402433520131</v>
+        <v>1.04199324617051</v>
       </c>
       <c r="J11">
-        <v>1.01139705667748</v>
+        <v>1.01296422022198</v>
       </c>
       <c r="K11">
-        <v>1.025614709413832</v>
+        <v>1.026776529192491</v>
       </c>
       <c r="L11">
-        <v>1.006548529668542</v>
+        <v>1.007993452954852</v>
       </c>
       <c r="M11">
-        <v>1.026625596329709</v>
+        <v>1.027854307712944</v>
       </c>
       <c r="N11">
-        <v>1.007115659263037</v>
+        <v>1.010691776506194</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.02925201805834</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030089192306823</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019464134041032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9798864831180157</v>
+        <v>0.9816747790175285</v>
       </c>
       <c r="D12">
-        <v>1.009995935556611</v>
+        <v>1.011316785764113</v>
       </c>
       <c r="E12">
-        <v>0.9904042948286715</v>
+        <v>0.9920105032415704</v>
       </c>
       <c r="F12">
-        <v>1.010860274446999</v>
+        <v>1.012248492666618</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041098840782379</v>
+        <v>1.041753797974688</v>
       </c>
       <c r="J12">
-        <v>1.010567168864362</v>
+        <v>1.012275466066201</v>
       </c>
       <c r="K12">
-        <v>1.024934102602641</v>
+        <v>1.026230338860726</v>
       </c>
       <c r="L12">
-        <v>1.005717671731717</v>
+        <v>1.007292386992359</v>
       </c>
       <c r="M12">
-        <v>1.025782325109002</v>
+        <v>1.027144733859874</v>
       </c>
       <c r="N12">
-        <v>1.006825707931736</v>
+        <v>1.010607081360725</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.028770799793292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029703021330055</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019341309760467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9801711339886026</v>
+        <v>0.9819272106230378</v>
       </c>
       <c r="D13">
-        <v>1.010186666968145</v>
+        <v>1.011477918273107</v>
       </c>
       <c r="E13">
-        <v>0.9906297748098953</v>
+        <v>0.992207300586066</v>
       </c>
       <c r="F13">
-        <v>1.011086652135327</v>
+        <v>1.012445403098464</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041162851267752</v>
+        <v>1.041803996038724</v>
       </c>
       <c r="J13">
-        <v>1.010743269365217</v>
+        <v>1.012421138826482</v>
       </c>
       <c r="K13">
-        <v>1.025077887015663</v>
+        <v>1.026345167454964</v>
       </c>
       <c r="L13">
-        <v>1.005894076939877</v>
+        <v>1.007440793410895</v>
       </c>
       <c r="M13">
-        <v>1.025961156373309</v>
+        <v>1.02729474406875</v>
       </c>
       <c r="N13">
-        <v>1.006886911713137</v>
+        <v>1.010623721838425</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.02886994819121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.029781454308975</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019366859681929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9811105651170589</v>
+        <v>0.9827617761783092</v>
       </c>
       <c r="D14">
-        <v>1.010820102369703</v>
+        <v>1.012014871227194</v>
       </c>
       <c r="E14">
-        <v>0.9913754861173646</v>
+        <v>0.9928596690175373</v>
       </c>
       <c r="F14">
-        <v>1.011836243661761</v>
+        <v>1.013099019872419</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041376870330881</v>
+        <v>1.041972956007394</v>
       </c>
       <c r="J14">
-        <v>1.011327652875899</v>
+        <v>1.012906402087548</v>
       </c>
       <c r="K14">
-        <v>1.025557517129563</v>
+        <v>1.026730383281749</v>
       </c>
       <c r="L14">
-        <v>1.006479086860472</v>
+        <v>1.0079346570788</v>
       </c>
       <c r="M14">
-        <v>1.026555026064826</v>
+        <v>1.027794715325545</v>
       </c>
       <c r="N14">
-        <v>1.007091273232721</v>
+        <v>1.010684096659509</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.029210504155706</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03005538632707</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019453640369013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9816921656805561</v>
+        <v>0.98327963207382</v>
       </c>
       <c r="D15">
-        <v>1.011214347570329</v>
+        <v>1.012350329881308</v>
       </c>
       <c r="E15">
-        <v>0.991838018465142</v>
+        <v>0.9932654841523429</v>
       </c>
       <c r="F15">
-        <v>1.012301652862534</v>
+        <v>1.013506019989564</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041510716313905</v>
+        <v>1.042079346970392</v>
       </c>
       <c r="J15">
-        <v>1.011691082010004</v>
+        <v>1.013209517484729</v>
       </c>
       <c r="K15">
-        <v>1.025857061475101</v>
+        <v>1.026972380656772</v>
       </c>
       <c r="L15">
-        <v>1.006842723006935</v>
+        <v>1.008242890084245</v>
       </c>
       <c r="M15">
-        <v>1.026924587818963</v>
+        <v>1.028107110974575</v>
       </c>
       <c r="N15">
-        <v>1.007218999273562</v>
+        <v>1.010725119540685</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.029428213261986</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030232970087598</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019508711477043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9850146278738906</v>
+        <v>0.9862580405839372</v>
       </c>
       <c r="D16">
-        <v>1.01345684545252</v>
+        <v>1.014272251425699</v>
       </c>
       <c r="E16">
-        <v>0.9944792999075002</v>
+        <v>0.9956014710622777</v>
       </c>
       <c r="F16">
-        <v>1.014956361861548</v>
+        <v>1.015843585774177</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042262430620012</v>
+        <v>1.04268230938559</v>
       </c>
       <c r="J16">
-        <v>1.013756942952438</v>
+        <v>1.014949120488891</v>
       </c>
       <c r="K16">
-        <v>1.027551333041943</v>
+        <v>1.028352574935575</v>
       </c>
       <c r="L16">
-        <v>1.008911979681836</v>
+        <v>1.01001368629138</v>
       </c>
       <c r="M16">
-        <v>1.029024824689151</v>
+        <v>1.029896697242726</v>
       </c>
       <c r="N16">
-        <v>1.007940905456018</v>
+        <v>1.010992085896044</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.030629324337695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031212301259423</v>
+      </c>
+      <c r="S16">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T16">
+        <v>1.019820359608458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.987071849869287</v>
+        <v>0.9881213654578718</v>
       </c>
       <c r="D17">
-        <v>1.014847407116811</v>
+        <v>1.015478752578912</v>
       </c>
       <c r="E17">
-        <v>0.9961174193237345</v>
+        <v>0.9970681354290076</v>
       </c>
       <c r="F17">
-        <v>1.016602754432045</v>
+        <v>1.017309159651189</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042725095798308</v>
+        <v>1.043060162285131</v>
       </c>
       <c r="J17">
-        <v>1.015036066211344</v>
+        <v>1.016043801598489</v>
       </c>
       <c r="K17">
-        <v>1.028600021094583</v>
+        <v>1.029220719254998</v>
       </c>
       <c r="L17">
-        <v>1.010193868442677</v>
+        <v>1.011127766879833</v>
       </c>
       <c r="M17">
-        <v>1.030325807623859</v>
+        <v>1.031020353792897</v>
       </c>
       <c r="N17">
-        <v>1.008387786331696</v>
+        <v>1.011197648557648</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.031373393529634</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.031828957185532</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020017056394898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9882497157893281</v>
+        <v>0.9891958055522876</v>
       </c>
       <c r="D18">
-        <v>1.015639198199946</v>
+        <v>1.016170731331911</v>
       </c>
       <c r="E18">
-        <v>0.997054604915308</v>
+        <v>0.9979141458774182</v>
       </c>
       <c r="F18">
-        <v>1.017543348261437</v>
+        <v>1.018152256403325</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042984879068396</v>
+        <v>1.043274281583458</v>
       </c>
       <c r="J18">
-        <v>1.015764104224187</v>
+        <v>1.016673289168882</v>
       </c>
       <c r="K18">
-        <v>1.029193330783169</v>
+        <v>1.029716055088316</v>
       </c>
       <c r="L18">
-        <v>1.010924374137004</v>
+        <v>1.011768981276422</v>
       </c>
       <c r="M18">
-        <v>1.031065979113675</v>
+        <v>1.031664845636201</v>
       </c>
       <c r="N18">
-        <v>1.008640463072874</v>
+        <v>1.011328386990418</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.031781174588094</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032166332002002</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020128211988712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9886595686069726</v>
+        <v>0.9895707385699588</v>
       </c>
       <c r="D19">
-        <v>1.015918783564398</v>
+        <v>1.016416438921869</v>
       </c>
       <c r="E19">
-        <v>0.9973821547744139</v>
+        <v>0.9982109090228345</v>
       </c>
       <c r="F19">
-        <v>1.017873097802603</v>
+        <v>1.018448970527466</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043078301859603</v>
+        <v>1.043352159180204</v>
       </c>
       <c r="J19">
-        <v>1.016020779830445</v>
+        <v>1.016896655227551</v>
       </c>
       <c r="K19">
-        <v>1.029405180089543</v>
+        <v>1.029894637591169</v>
       </c>
       <c r="L19">
-        <v>1.011181442178007</v>
+        <v>1.01199588645731</v>
       </c>
       <c r="M19">
-        <v>1.031327360231004</v>
+        <v>1.031893794327476</v>
       </c>
       <c r="N19">
-        <v>1.008730822891711</v>
+        <v>1.011378856994434</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.031937392508226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032299646525601</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020169363805367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,93 +1447,111 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9868511192938677</v>
+        <v>0.9879206980053674</v>
       </c>
       <c r="D20">
-        <v>1.014697737931139</v>
+        <v>1.015348272979609</v>
       </c>
       <c r="E20">
-        <v>0.9959414289691102</v>
+        <v>0.9969098666547249</v>
       </c>
       <c r="F20">
-        <v>1.016425777778165</v>
+        <v>1.017150984773104</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042675240437676</v>
+        <v>1.043019134653589</v>
       </c>
       <c r="J20">
-        <v>1.014898490120092</v>
+        <v>1.015925330905827</v>
       </c>
       <c r="K20">
-        <v>1.02848697662274</v>
+        <v>1.02912650557559</v>
       </c>
       <c r="L20">
-        <v>1.010056020853593</v>
+        <v>1.011007270836224</v>
       </c>
       <c r="M20">
-        <v>1.030185820555794</v>
+        <v>1.030898813003458</v>
       </c>
       <c r="N20">
-        <v>1.00833959798958</v>
+        <v>1.011173734014351</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031292122566519</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031760872413072</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019995582850868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9808481963139885</v>
+        <v>0.9825586960208953</v>
       </c>
       <c r="D21">
-        <v>1.010648581668433</v>
+        <v>1.011893102015764</v>
       </c>
       <c r="E21">
-        <v>0.9911690271413621</v>
+        <v>0.9927071035164418</v>
       </c>
       <c r="F21">
-        <v>1.01163003438495</v>
+        <v>1.012943918465174</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041321521819521</v>
+        <v>1.041941649427952</v>
       </c>
       <c r="J21">
-        <v>1.011169058649978</v>
+        <v>1.012804173854047</v>
       </c>
       <c r="K21">
-        <v>1.02543098324659</v>
+        <v>1.026652605514175</v>
       </c>
       <c r="L21">
-        <v>1.006319658952356</v>
+        <v>1.00782797194265</v>
       </c>
       <c r="M21">
-        <v>1.026394371978892</v>
+        <v>1.027684144917891</v>
       </c>
       <c r="N21">
-        <v>1.007037630716624</v>
+        <v>1.010741900001131</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.02913466061476</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030015318720128</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01943994194671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.976965744982653</v>
+        <v>0.9790952908095367</v>
       </c>
       <c r="D22">
-        <v>1.008030083756067</v>
+        <v>1.009663097365842</v>
       </c>
       <c r="E22">
-        <v>0.9880893225454818</v>
+        <v>0.989999990834378</v>
       </c>
       <c r="F22">
-        <v>1.008533504796405</v>
+        <v>1.010233295620006</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040431416885302</v>
+        <v>1.041232828077177</v>
       </c>
       <c r="J22">
-        <v>1.008751315893325</v>
+        <v>1.010781245305915</v>
       </c>
       <c r="K22">
-        <v>1.023444124093818</v>
+        <v>1.025045526554247</v>
       </c>
       <c r="L22">
-        <v>1.003900483407001</v>
+        <v>1.005772187330909</v>
       </c>
       <c r="M22">
-        <v>1.023937785829196</v>
+        <v>1.025604718697374</v>
       </c>
       <c r="N22">
-        <v>1.006190973712067</v>
+        <v>1.010448884062092</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027716240164361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028864144961963</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019075322204693</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9790162220278805</v>
+        <v>0.9809042720796234</v>
       </c>
       <c r="D23">
-        <v>1.009405816134599</v>
+        <v>1.010818065032224</v>
       </c>
       <c r="E23">
-        <v>0.9897127079623086</v>
+        <v>0.9914078745000287</v>
       </c>
       <c r="F23">
-        <v>1.010164187979344</v>
+        <v>1.011643520940928</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040897109228324</v>
+        <v>1.041594959892246</v>
       </c>
       <c r="J23">
-        <v>1.010022662277617</v>
+        <v>1.011825117291721</v>
       </c>
       <c r="K23">
-        <v>1.02448466694762</v>
+        <v>1.025870297717762</v>
       </c>
       <c r="L23">
-        <v>1.005173141572386</v>
+        <v>1.006834678305862</v>
       </c>
       <c r="M23">
-        <v>1.025228732879542</v>
+        <v>1.026680240339188</v>
       </c>
       <c r="N23">
-        <v>1.006634023713022</v>
+        <v>1.010553595009517</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028442242794028</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029436644540753</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019259325004028</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9869241281437822</v>
+        <v>0.9879875778317706</v>
       </c>
       <c r="D24">
-        <v>1.014736616366195</v>
+        <v>1.015381015901696</v>
       </c>
       <c r="E24">
-        <v>0.9959961579956946</v>
+        <v>0.9969593011282265</v>
       </c>
       <c r="F24">
-        <v>1.016478114001269</v>
+        <v>1.017197404105202</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042683128874023</v>
+        <v>1.043024434219854</v>
       </c>
       <c r="J24">
-        <v>1.014934983212064</v>
+        <v>1.015956008285259</v>
       </c>
       <c r="K24">
-        <v>1.028509790174354</v>
+        <v>1.029143302405402</v>
       </c>
       <c r="L24">
-        <v>1.010093952320589</v>
+        <v>1.011040026097582</v>
       </c>
       <c r="M24">
-        <v>1.030221905691677</v>
+        <v>1.030929097965698</v>
       </c>
       <c r="N24">
-        <v>1.008348944517734</v>
+        <v>1.011175631189776</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031280678523166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031742515309548</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019996674729633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9957333688732468</v>
+        <v>0.9961547606804844</v>
       </c>
       <c r="D25">
-        <v>1.020700763315179</v>
+        <v>1.020695787713096</v>
       </c>
       <c r="E25">
-        <v>1.003031499747666</v>
+        <v>1.003432287379119</v>
       </c>
       <c r="F25">
-        <v>1.023546080790348</v>
+        <v>1.023640340867</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044632504514439</v>
+        <v>1.044679892128105</v>
       </c>
       <c r="J25">
-        <v>1.020405180305159</v>
+        <v>1.020812229061368</v>
       </c>
       <c r="K25">
-        <v>1.032986006261085</v>
+        <v>1.032981103970615</v>
       </c>
       <c r="L25">
-        <v>1.015582937162461</v>
+        <v>1.015977554148017</v>
       </c>
       <c r="M25">
-        <v>1.035789548365474</v>
+        <v>1.035882429545248</v>
       </c>
       <c r="N25">
-        <v>1.010256938047554</v>
+        <v>1.012468897943846</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034442741316969</v>
+        <v>1.034452853898911</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020870063642504</v>
       </c>
     </row>
   </sheetData>
